--- a/src/informesGenerados/InformePrevencion.xlsx
+++ b/src/informesGenerados/InformePrevencion.xlsx
@@ -447,6 +447,689 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Planta Exterior</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="false"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cant-Hechos</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="false"/>
+            <c:showVal val="true"/>
+            <c:showCatName val="false"/>
+            <c:showSerName val="false"/>
+            <c:showPercent val="false"/>
+            <c:showBubbleSize val="false"/>
+            <c:showLeaderLines val="false"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graficos!$A$2:$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ene</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Abr</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ago</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Dic</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ene</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Abr</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Ago</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Dic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Graficos'!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="false"/>
+          <c:showVal val="true"/>
+          <c:showCatName val="false"/>
+          <c:showSerName val="false"/>
+          <c:showPercent val="false"/>
+          <c:showBubbleSize val="false"/>
+        </c:dLbls>
+        <c:marker val="true"/>
+        <c:axId val="0"/>
+        <c:axId val="1"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="0"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="false"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="0"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="false"/>
+    </c:legend>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="false"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Telefonía Pública</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="false"/>
+    </c:title>
+    <c:autoTitleDeleted val="false"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cant-Hechos</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="false"/>
+            <c:showVal val="true"/>
+            <c:showCatName val="false"/>
+            <c:showSerName val="false"/>
+            <c:showPercent val="false"/>
+            <c:showBubbleSize val="false"/>
+            <c:showLeaderLines val="false"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graficos!$A$2:$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ene</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Abr</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Ago</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Dic</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ene</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Abr</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Ago</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Dic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Graficos'!$D$2:$D$25</c:f>
+              <c:numCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="false"/>
+          <c:showVal val="true"/>
+          <c:showCatName val="false"/>
+          <c:showSerName val="false"/>
+          <c:showPercent val="false"/>
+          <c:showBubbleSize val="false"/>
+        </c:dLbls>
+        <c:marker val="true"/>
+        <c:axId val="0"/>
+        <c:axId val="1"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="0"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="false"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="true"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="0"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="false"/>
+    </c:legend>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -787,7 +1470,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -802,13 +1485,27 @@
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="B3" s="6">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>2</v>
+      </c>
       <c r="I3" s="7">
         <f ca="1">SUM(B3:H3)</f>
         <v>0</v>
@@ -818,13 +1515,27 @@
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="B4" s="6">
+        <v>20</v>
+      </c>
+      <c r="C4" s="6">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>3</v>
+      </c>
       <c r="I4" s="7">
         <f ca="1">SUM(B4:H4)</f>
         <v>0</v>
@@ -834,13 +1545,27 @@
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="B5" s="6">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>6</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
       <c r="I5" s="7">
         <f ca="1">SUM(B5:H5)</f>
         <v>0</v>
@@ -850,13 +1575,27 @@
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
       <c r="I6" s="7">
         <f ca="1">SUM(B6:H6)</f>
         <v>0</v>
@@ -866,13 +1605,27 @@
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
       <c r="I7" s="7">
         <f ca="1">SUM(B7:H7)</f>
         <v>0</v>
@@ -882,13 +1635,27 @@
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
       <c r="I8" s="7">
         <f ca="1">SUM(B8:H8)</f>
         <v>0</v>
@@ -898,13 +1665,27 @@
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
       <c r="I9" s="7">
         <f ca="1">SUM(B9:H9)</f>
         <v>0</v>
@@ -914,13 +1695,27 @@
       <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
       <c r="I10" s="7">
         <f ca="1">SUM(B10:H10)</f>
         <v>0</v>
@@ -930,13 +1725,27 @@
       <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
       <c r="I11" s="7">
         <f ca="1">SUM(B11:H11)</f>
         <v>0</v>
@@ -946,13 +1755,27 @@
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
       <c r="I12" s="7">
         <f ca="1">SUM(B12:H12)</f>
         <v>0</v>
@@ -962,13 +1785,27 @@
       <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
       <c r="I13" s="7">
         <f ca="1">SUM(B13:H13)</f>
         <v>0</v>
@@ -978,13 +1815,27 @@
       <c r="A14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="B14" s="6">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
       <c r="I14" s="7">
         <f ca="1">SUM(B14:H14)</f>
         <v>0</v>
@@ -1029,7 +1880,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1044,13 +1895,27 @@
       <c r="A17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="B17" s="6">
+        <v>10</v>
+      </c>
+      <c r="C17" s="6">
+        <v>4</v>
+      </c>
+      <c r="D17" s="6">
+        <v>4</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2</v>
+      </c>
       <c r="I17" s="7">
         <f ca="1">SUM(B17:H17)</f>
         <v>0</v>
@@ -1060,13 +1925,27 @@
       <c r="A18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="B18" s="6">
+        <v>4</v>
+      </c>
+      <c r="C18" s="6">
+        <v>10</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
       <c r="I18" s="7">
         <f ca="1">SUM(B18:H18)</f>
         <v>0</v>
@@ -1076,13 +1955,27 @@
       <c r="A19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="B19" s="6">
+        <v>3</v>
+      </c>
+      <c r="C19" s="6">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6">
+        <v>7</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>2</v>
+      </c>
       <c r="I19" s="7">
         <f ca="1">SUM(B19:H19)</f>
         <v>0</v>
@@ -1092,13 +1985,27 @@
       <c r="A20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="B20" s="6">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
       <c r="I20" s="7">
         <f ca="1">SUM(B20:H20)</f>
         <v>0</v>
@@ -1108,13 +2015,27 @@
       <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="B21" s="6">
+        <v>0</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
       <c r="I21" s="7">
         <f ca="1">SUM(B21:H21)</f>
         <v>0</v>
@@ -1124,13 +2045,27 @@
       <c r="A22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="B22" s="6">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
       <c r="I22" s="7">
         <f ca="1">SUM(B22:H22)</f>
         <v>0</v>
@@ -1140,13 +2075,27 @@
       <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="B23" s="6">
+        <v>0</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
       <c r="I23" s="7">
         <f ca="1">SUM(B23:H23)</f>
         <v>0</v>
@@ -1156,13 +2105,27 @@
       <c r="A24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="B24" s="6">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
       <c r="I24" s="7">
         <f ca="1">SUM(B24:H24)</f>
         <v>0</v>
@@ -1172,13 +2135,27 @@
       <c r="A25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="B25" s="6">
+        <v>0</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
       <c r="I25" s="7">
         <f ca="1">SUM(B25:H25)</f>
         <v>0</v>
@@ -1188,13 +2165,27 @@
       <c r="A26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="B26" s="6">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
       <c r="I26" s="7">
         <f ca="1">SUM(B26:H26)</f>
         <v>0</v>
@@ -1204,13 +2195,27 @@
       <c r="A27" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="B27" s="6">
+        <v>0</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
       <c r="I27" s="7">
         <f ca="1">SUM(B27:H27)</f>
         <v>0</v>
@@ -1220,13 +2225,27 @@
       <c r="A28" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="B28" s="6">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
       <c r="I28" s="7">
         <f ca="1">SUM(B28:H28)</f>
         <v>0</v>
@@ -1271,8 +2290,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A2:I2"/>
     <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
@@ -1318,17 +2337,29 @@
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="15"/>
+      <c r="B3" s="6">
+        <v>9627.09</v>
+      </c>
+      <c r="C3" s="6">
+        <v>57859.2</v>
+      </c>
+      <c r="D3" s="15">
+        <v>4274</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="15"/>
+      <c r="B4" s="6">
+        <v>585.88</v>
+      </c>
+      <c r="C4" s="6">
+        <v>546.7</v>
+      </c>
+      <c r="D4" s="15">
+        <v>21</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
@@ -1349,9 +2380,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
@@ -1383,16 +2414,16 @@
     </row>
     <row r="2">
       <c r="A2" s="6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" s="16">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1401,10 +2432,10 @@
         <v>31</v>
       </c>
       <c r="C3" s="6">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D3" s="16">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1413,10 +2444,10 @@
         <v>32</v>
       </c>
       <c r="C4" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D4" s="16">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1425,10 +2456,10 @@
         <v>33</v>
       </c>
       <c r="C5" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" s="16">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1437,10 +2468,10 @@
         <v>34</v>
       </c>
       <c r="C6" s="6">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D6" s="16">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1449,10 +2480,10 @@
         <v>35</v>
       </c>
       <c r="C7" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1461,10 +2492,10 @@
         <v>36</v>
       </c>
       <c r="C8" s="6">
+        <v>11</v>
+      </c>
+      <c r="D8" s="16">
         <v>7</v>
-      </c>
-      <c r="D8" s="16">
-        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1473,10 +2504,10 @@
         <v>37</v>
       </c>
       <c r="C9" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D9" s="16">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1485,10 +2516,10 @@
         <v>38</v>
       </c>
       <c r="C10" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="16">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1497,10 +2528,10 @@
         <v>39</v>
       </c>
       <c r="C11" s="6">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D11" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1509,10 +2540,10 @@
         <v>40</v>
       </c>
       <c r="C12" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D12" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1521,24 +2552,24 @@
         <v>41</v>
       </c>
       <c r="C13" s="6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D13" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D14" s="16">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1547,10 +2578,10 @@
         <v>31</v>
       </c>
       <c r="C15" s="6">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D15" s="16">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1559,10 +2590,10 @@
         <v>32</v>
       </c>
       <c r="C16" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D16" s="16">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1571,10 +2602,10 @@
         <v>33</v>
       </c>
       <c r="C17" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D17" s="16">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1583,10 +2614,10 @@
         <v>34</v>
       </c>
       <c r="C18" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D18" s="16">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1595,10 +2626,10 @@
         <v>35</v>
       </c>
       <c r="C19" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D19" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1607,10 +2638,10 @@
         <v>36</v>
       </c>
       <c r="C20" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D20" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1619,10 +2650,10 @@
         <v>37</v>
       </c>
       <c r="C21" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D21" s="16">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1631,10 +2662,10 @@
         <v>38</v>
       </c>
       <c r="C22" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D22" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1643,10 +2674,10 @@
         <v>39</v>
       </c>
       <c r="C23" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D23" s="16">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1655,10 +2686,10 @@
         <v>40</v>
       </c>
       <c r="C24" s="6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D24" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1667,18 +2698,19 @@
         <v>41</v>
       </c>
       <c r="C25" s="19">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D25" s="20">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A25"/>
-    <mergeCell ref="A2:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/informesGenerados/InformePrevencion.xlsx
+++ b/src/informesGenerados/InformePrevencion.xlsx
@@ -548,7 +548,7 @@
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2019</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Ene</c:v>
@@ -587,7 +587,7 @@
                   <c:v>Dic</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2020</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Ene</c:v>
@@ -634,76 +634,76 @@
               <c:numCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
                 <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -857,7 +857,7 @@
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>2019</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Ene</c:v>
@@ -896,7 +896,7 @@
                   <c:v>Dic</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2020</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Ene</c:v>
@@ -943,76 +943,76 @@
               <c:numCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1486,16 +1486,16 @@
         <v>9</v>
       </c>
       <c r="B3" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C3" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D3" s="6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" s="7">
         <f ca="1">SUM(B3:H3)</f>
@@ -1516,13 +1516,13 @@
         <v>10</v>
       </c>
       <c r="B4" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C4" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E4" s="6">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
         <f ca="1">SUM(B4:H4)</f>
@@ -1546,16 +1546,16 @@
         <v>11</v>
       </c>
       <c r="B5" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C5" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E5" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>15</v>
       </c>
       <c r="B9" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C9" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E9" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
@@ -1696,25 +1696,25 @@
         <v>16</v>
       </c>
       <c r="B10" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D10" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E10" s="6">
         <v>0</v>
       </c>
       <c r="F10" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="6">
         <v>0</v>
       </c>
       <c r="H10" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
         <f ca="1">SUM(B10:H10)</f>
@@ -1726,16 +1726,16 @@
         <v>17</v>
       </c>
       <c r="B11" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C11" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E11" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
         <f ca="1">SUM(B11:H11)</f>
@@ -1756,13 +1756,13 @@
         <v>18</v>
       </c>
       <c r="B12" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C12" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D12" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E12" s="6">
         <v>0</v>
@@ -1771,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
         <f ca="1">SUM(B12:H12)</f>
@@ -1786,13 +1786,13 @@
         <v>19</v>
       </c>
       <c r="B13" s="6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C13" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
         <f ca="1">SUM(B13:H13)</f>
@@ -1816,13 +1816,13 @@
         <v>20</v>
       </c>
       <c r="B14" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C14" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D14" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
@@ -1831,10 +1831,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
         <f ca="1">SUM(B14:H14)</f>
@@ -1896,13 +1896,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C17" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D17" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E17" s="6">
         <v>0</v>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
         <f ca="1">SUM(B17:H17)</f>
@@ -1926,13 +1926,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C18" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D18" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E18" s="6">
         <v>0</v>
@@ -1956,16 +1956,16 @@
         <v>11</v>
       </c>
       <c r="B19" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C19" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D19" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E19" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="6">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
         <f ca="1">SUM(B19:H19)</f>
@@ -2076,16 +2076,16 @@
         <v>15</v>
       </c>
       <c r="B23" s="6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C23" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D23" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E23" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" s="6">
         <v>0</v>
@@ -2106,25 +2106,25 @@
         <v>16</v>
       </c>
       <c r="B24" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E24" s="6">
         <v>0</v>
       </c>
       <c r="F24" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="6">
         <v>0</v>
       </c>
       <c r="H24" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="7">
         <f ca="1">SUM(B24:H24)</f>
@@ -2136,25 +2136,25 @@
         <v>17</v>
       </c>
       <c r="B25" s="6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C25" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D25" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E25" s="6">
         <v>0</v>
       </c>
       <c r="F25" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
         <f ca="1">SUM(B25:H25)</f>
@@ -2166,13 +2166,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C26" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D26" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E26" s="6">
         <v>0</v>
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
         <f ca="1">SUM(B26:H26)</f>
@@ -2196,16 +2196,16 @@
         <v>19</v>
       </c>
       <c r="B27" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C27" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E27" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" s="6">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="7">
         <f ca="1">SUM(B27:H27)</f>
@@ -2226,13 +2226,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C28" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D28" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E28" s="6">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="7">
         <f ca="1">SUM(B28:H28)</f>
@@ -2338,13 +2338,13 @@
         <v>27</v>
       </c>
       <c r="B3" s="6">
-        <v>9627.09</v>
+        <v>9749.8</v>
       </c>
       <c r="C3" s="6">
-        <v>57859.2</v>
+        <v>4686.88</v>
       </c>
       <c r="D3" s="15">
-        <v>4274</v>
+        <v>5944</v>
       </c>
     </row>
     <row r="4">
@@ -2352,13 +2352,13 @@
         <v>28</v>
       </c>
       <c r="B4" s="6">
-        <v>585.88</v>
+        <v>1684.08</v>
       </c>
       <c r="C4" s="6">
-        <v>546.7</v>
+        <v>658.73</v>
       </c>
       <c r="D4" s="15">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -2380,8 +2380,8 @@
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2414,16 +2414,16 @@
     </row>
     <row r="2">
       <c r="A2" s="6">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2" s="16">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2432,10 +2432,10 @@
         <v>31</v>
       </c>
       <c r="C3" s="6">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D3" s="16">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2444,10 +2444,10 @@
         <v>32</v>
       </c>
       <c r="C4" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D4" s="16">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2456,10 +2456,10 @@
         <v>33</v>
       </c>
       <c r="C5" s="6">
+        <v>5</v>
+      </c>
+      <c r="D5" s="16">
         <v>8</v>
-      </c>
-      <c r="D5" s="16">
-        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2468,10 +2468,10 @@
         <v>34</v>
       </c>
       <c r="C6" s="6">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D6" s="16">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2480,10 +2480,10 @@
         <v>35</v>
       </c>
       <c r="C7" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -2492,10 +2492,10 @@
         <v>36</v>
       </c>
       <c r="C8" s="6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D8" s="16">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -2504,10 +2504,10 @@
         <v>37</v>
       </c>
       <c r="C9" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D9" s="16">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -2516,10 +2516,10 @@
         <v>38</v>
       </c>
       <c r="C10" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="16">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -2528,10 +2528,10 @@
         <v>39</v>
       </c>
       <c r="C11" s="6">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D11" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -2540,10 +2540,10 @@
         <v>40</v>
       </c>
       <c r="C12" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D12" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -2552,24 +2552,24 @@
         <v>41</v>
       </c>
       <c r="C13" s="6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D13" s="16">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D14" s="16">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -2578,10 +2578,10 @@
         <v>31</v>
       </c>
       <c r="C15" s="6">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D15" s="16">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -2590,7 +2590,7 @@
         <v>32</v>
       </c>
       <c r="C16" s="6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D16" s="16">
         <v>4</v>
@@ -2602,10 +2602,10 @@
         <v>33</v>
       </c>
       <c r="C17" s="6">
+        <v>10</v>
+      </c>
+      <c r="D17" s="16">
         <v>5</v>
-      </c>
-      <c r="D17" s="16">
-        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -2614,10 +2614,10 @@
         <v>34</v>
       </c>
       <c r="C18" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D18" s="16">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -2626,10 +2626,10 @@
         <v>35</v>
       </c>
       <c r="C19" s="6">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D19" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -2638,10 +2638,10 @@
         <v>36</v>
       </c>
       <c r="C20" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -2650,10 +2650,10 @@
         <v>37</v>
       </c>
       <c r="C21" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D21" s="16">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2662,10 +2662,10 @@
         <v>38</v>
       </c>
       <c r="C22" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D22" s="16">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2674,10 +2674,10 @@
         <v>39</v>
       </c>
       <c r="C23" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D23" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2686,10 +2686,10 @@
         <v>40</v>
       </c>
       <c r="C24" s="6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D24" s="16">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2698,10 +2698,10 @@
         <v>41</v>
       </c>
       <c r="C25" s="19">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D25" s="20">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
